--- a/global_data/day_data/001277.xlsx
+++ b/global_data/day_data/001277.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4932,6 +4934,64 @@
         <v>0.1910526842105263</v>
       </c>
     </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B157">
+        <v>38</v>
+      </c>
+      <c r="C157">
+        <v>40.48</v>
+      </c>
+      <c r="D157">
+        <v>36.29</v>
+      </c>
+      <c r="E157">
+        <v>38.44</v>
+      </c>
+      <c r="F157">
+        <v>3432700</v>
+      </c>
+      <c r="G157">
+        <v>131030590</v>
+      </c>
+      <c r="H157">
+        <v>19000000</v>
+      </c>
+      <c r="I157">
+        <v>0.1806684210526316</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B158">
+        <v>38</v>
+      </c>
+      <c r="C158">
+        <v>38</v>
+      </c>
+      <c r="D158">
+        <v>37.42</v>
+      </c>
+      <c r="E158">
+        <v>37.57</v>
+      </c>
+      <c r="F158">
+        <v>964500</v>
+      </c>
+      <c r="G158">
+        <v>36335593</v>
+      </c>
+      <c r="H158">
+        <v>19000000</v>
+      </c>
+      <c r="I158">
+        <v>0.05076315789473684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
